--- a/biology/Botanique/Feuille_de_bananier/Feuille_de_bananier.xlsx
+++ b/biology/Botanique/Feuille_de_bananier/Feuille_de_bananier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille de bananier est une feuille issue du bananier, qui peut produire jusqu'à 40 feuilles au cours d'un cycle de croissance[1]. Les feuilles ont un large éventail d'applications car elles sont grandes, flexibles, imperméables et décoratives. Elles sont utilisées pour cuisiner, emballer[2] et servir les aliments dans un large éventail de cuisines des régions tropicales et subtropicales (tel que le four polynésien). Elles sont utilisés à des fins décoratives et symboliques dans de nombreuses cérémonies hindoues et bouddhistes. Dans la construction traditionnelle de maisons dans les régions tropicales, les toits et les clôtures sont faits de chaume de feuilles de bananier sèches[3]. Les feuilles de bananier et de palmier étaient historiquement les principaux supports d'écriture dans de nombreuses nations d'Asie du Sud et Sud-Est. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille de bananier est une feuille issue du bananier, qui peut produire jusqu'à 40 feuilles au cours d'un cycle de croissance. Les feuilles ont un large éventail d'applications car elles sont grandes, flexibles, imperméables et décoratives. Elles sont utilisées pour cuisiner, emballer et servir les aliments dans un large éventail de cuisines des régions tropicales et subtropicales (tel que le four polynésien). Elles sont utilisés à des fins décoratives et symboliques dans de nombreuses cérémonies hindoues et bouddhistes. Dans la construction traditionnelle de maisons dans les régions tropicales, les toits et les clôtures sont faits de chaume de feuilles de bananier sèches. Les feuilles de bananier et de palmier étaient historiquement les principaux supports d'écriture dans de nombreuses nations d'Asie du Sud et Sud-Est. 
 </t>
         </is>
       </c>
